--- a/Casos/data_io tarea 3.xlsx
+++ b/Casos/data_io tarea 3.xlsx
@@ -17809,15 +17809,11 @@
       <c r="B2" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="inlineStr">
-        <is>
-          <t>1987.8981346030116</t>
-        </is>
+      <c r="C2" s="7" t="n">
+        <v>1987.898134603012</v>
       </c>
-      <c r="D2" s="7" t="inlineStr">
-        <is>
-          <t>-1037.6911239396366</t>
-        </is>
+      <c r="D2" s="7" t="n">
+        <v>-1037.691123939637</v>
       </c>
       <c r="E2" s="10" t="n"/>
       <c r="F2" s="10" t="n"/>
@@ -17847,15 +17843,11 @@
       <c r="B3" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="7" t="inlineStr">
-        <is>
-          <t>1846.5207630298764</t>
-        </is>
+      <c r="C3" s="7" t="n">
+        <v>1846.520763029876</v>
       </c>
-      <c r="D3" s="7" t="inlineStr">
-        <is>
-          <t>1356.464074238219</t>
-        </is>
+      <c r="D3" s="7" t="n">
+        <v>1356.464074238219</v>
       </c>
       <c r="E3" s="10" t="n"/>
       <c r="F3" s="10" t="n"/>
@@ -24386,15 +24378,11 @@
       <c r="B2" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="inlineStr">
-        <is>
-          <t>0.005545341835815881</t>
-        </is>
+      <c r="C2" s="7" t="n">
+        <v>0.005545341835815881</v>
       </c>
-      <c r="D2" s="7" t="inlineStr">
-        <is>
-          <t>-1.4709129537973165</t>
-        </is>
+      <c r="D2" s="7" t="n">
+        <v>-1.470912953797316</v>
       </c>
       <c r="E2" s="10" t="n"/>
       <c r="F2" s="10" t="n"/>
@@ -24424,15 +24412,11 @@
       <c r="B3" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="inlineStr">
-        <is>
-          <t>341.61476729509377</t>
-        </is>
+      <c r="C3" s="7" t="n">
+        <v>341.6147672950938</v>
       </c>
-      <c r="D3" s="7" t="inlineStr">
-        <is>
-          <t>128.78876727025036</t>
-        </is>
+      <c r="D3" s="7" t="n">
+        <v>128.7887672702504</v>
       </c>
       <c r="E3" s="10" t="n"/>
       <c r="F3" s="10" t="n"/>
@@ -24462,15 +24446,11 @@
       <c r="B4" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="7" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="C4" s="7" t="n">
+        <v>0</v>
       </c>
-      <c r="D4" s="7" t="inlineStr">
-        <is>
-          <t>-27.639214487214222</t>
-        </is>
+      <c r="D4" s="7" t="n">
+        <v>-27.63921448721422</v>
       </c>
       <c r="E4" s="10" t="n"/>
       <c r="F4" s="10" t="n"/>
@@ -24500,15 +24480,11 @@
       <c r="B5" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="C5" s="7" t="inlineStr">
-        <is>
-          <t>0.3758846043868609</t>
-        </is>
+      <c r="C5" s="7" t="n">
+        <v>0.3758846043868609</v>
       </c>
-      <c r="D5" s="7" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+      <c r="D5" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="E5" s="10" t="n"/>
       <c r="F5" s="10" t="n"/>
@@ -24538,15 +24514,11 @@
       <c r="B6" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="7" t="inlineStr">
-        <is>
-          <t>0.14813477889537055</t>
-        </is>
+      <c r="C6" s="7" t="n">
+        <v>0.1481347788953706</v>
       </c>
-      <c r="D6" s="7" t="inlineStr">
-        <is>
-          <t>-39.23719798818949</t>
-        </is>
+      <c r="D6" s="7" t="n">
+        <v>-39.23719798818949</v>
       </c>
       <c r="E6" s="10" t="n"/>
       <c r="F6" s="10" t="n"/>
